--- a/data/trans_orig/P6706-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47761</v>
+        <v>47874</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74971</v>
+        <v>75748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2264246678349172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1789074615572931</v>
+        <v>0.1793329377948783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2808355631138482</v>
+        <v>0.283744924272522</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -764,19 +764,19 @@
         <v>34698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24771</v>
+        <v>24175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46489</v>
+        <v>46128</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2179571614018775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1555970397409371</v>
+        <v>0.1518528274333127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2920192099125968</v>
+        <v>0.289753670082264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -785,19 +785,19 @@
         <v>95144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77116</v>
+        <v>77178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112832</v>
+        <v>112477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2232614813970817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1809573501928099</v>
+        <v>0.1811031291666801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2647677416650488</v>
+        <v>0.2639331956708592</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>43758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33156</v>
+        <v>33000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57653</v>
+        <v>57783</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1639141207163323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1242005156818215</v>
+        <v>0.1236156666764857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2159616291404154</v>
+        <v>0.2164488358985849</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -835,19 +835,19 @@
         <v>24088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15888</v>
+        <v>16095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34701</v>
+        <v>34077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1513075023351056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09980228682602674</v>
+        <v>0.1011026675500135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2179761310347176</v>
+        <v>0.2140559423167247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -856,19 +856,19 @@
         <v>67846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53514</v>
+        <v>53373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85518</v>
+        <v>84462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1592046959753168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1255746638580106</v>
+        <v>0.1252432233093272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2006731253817914</v>
+        <v>0.1981943549440505</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>54257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41621</v>
+        <v>41267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68932</v>
+        <v>69021</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2032421291354997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1559071095586673</v>
+        <v>0.154584134160771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2582131517640041</v>
+        <v>0.258545788621432</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -906,19 +906,19 @@
         <v>36597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26519</v>
+        <v>26777</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48611</v>
+        <v>48395</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2298862514666297</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1665764175140858</v>
+        <v>0.168196389132243</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3053486986092246</v>
+        <v>0.3039941331426476</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -927,19 +927,19 @@
         <v>90855</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71559</v>
+        <v>73422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110695</v>
+        <v>109670</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2131955111697909</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1679175241439547</v>
+        <v>0.172288559512203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.259751793582065</v>
+        <v>0.2573470465120704</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>38555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28016</v>
+        <v>28153</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49982</v>
+        <v>50175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1444247957509851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1049447965190457</v>
+        <v>0.1054601846553385</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1872270922610005</v>
+        <v>0.1879497934564223</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -977,19 +977,19 @@
         <v>23322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15023</v>
+        <v>15869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32855</v>
+        <v>33623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1464975418157503</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0943680558020972</v>
+        <v>0.09968250902610433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2063812341074111</v>
+        <v>0.2112040897212908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -998,19 +998,19 @@
         <v>61877</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48533</v>
+        <v>48973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77090</v>
+        <v>77760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1451991066172349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1138850416747255</v>
+        <v>0.1149173842022363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.180896442703898</v>
+        <v>0.1824684705054918</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>69941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55633</v>
+        <v>55678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85385</v>
+        <v>85327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2619942865622656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2083949439264116</v>
+        <v>0.2085652002607411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3198433199282453</v>
+        <v>0.3196251883657013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1048,19 +1048,19 @@
         <v>40492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30260</v>
+        <v>30217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53678</v>
+        <v>52884</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2543515429806368</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1900755199851052</v>
+        <v>0.1898055817165205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3371753241029437</v>
+        <v>0.332192063727145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -1069,19 +1069,19 @@
         <v>110434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92211</v>
+        <v>92462</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129703</v>
+        <v>129834</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2591392048405757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2163791694835263</v>
+        <v>0.2169671068280761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3043555201838009</v>
+        <v>0.3046626231791577</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>78480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62293</v>
+        <v>62669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96100</v>
+        <v>94576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1929807085938209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1531764757638416</v>
+        <v>0.1541031493853935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2363092104164632</v>
+        <v>0.2325612670491182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1194,19 +1194,19 @@
         <v>44105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32993</v>
+        <v>31705</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58658</v>
+        <v>57076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1650245336472316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1234489429365456</v>
+        <v>0.1186267961730696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2194771718560366</v>
+        <v>0.2135564184359647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -1215,19 +1215,19 @@
         <v>122585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103362</v>
+        <v>101733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145709</v>
+        <v>145284</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1818940677879363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1533709829766394</v>
+        <v>0.1509530773403335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2162059388863228</v>
+        <v>0.2155752686314082</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>41309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28983</v>
+        <v>28992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53950</v>
+        <v>56529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.101579398632565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07126888217525218</v>
+        <v>0.07129080948748792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1326611127598303</v>
+        <v>0.139003549378719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1265,19 +1265,19 @@
         <v>32269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22909</v>
+        <v>22413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45381</v>
+        <v>44390</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1207381224389544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08571628164744984</v>
+        <v>0.08385907100293183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1697998301294812</v>
+        <v>0.1660907443961158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1286,19 +1286,19 @@
         <v>73579</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58871</v>
+        <v>58347</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93942</v>
+        <v>92466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1091772151989013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08735393236665732</v>
+        <v>0.0865769037808081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1393932144987469</v>
+        <v>0.1372023454052515</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>74524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59398</v>
+        <v>58413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>91335</v>
+        <v>90289</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1832525045296884</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1460576808920938</v>
+        <v>0.1436372409613445</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2245921457342319</v>
+        <v>0.2220201637377949</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1336,19 +1336,19 @@
         <v>48158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36315</v>
+        <v>35716</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62715</v>
+        <v>61475</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1801883772948425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1358776515007323</v>
+        <v>0.1336346937257949</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2346565205710923</v>
+        <v>0.2300175133665446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -1357,19 +1357,19 @@
         <v>122682</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>102548</v>
+        <v>101345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145098</v>
+        <v>141770</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1820373569602814</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1521629357061122</v>
+        <v>0.1503771509907373</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2152983894223174</v>
+        <v>0.2103605992243646</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>83839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66039</v>
+        <v>68060</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102039</v>
+        <v>102511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2061580917655343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1623886656901465</v>
+        <v>0.1673585702021633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2509123551353198</v>
+        <v>0.2520733705299452</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1407,19 +1407,19 @@
         <v>60176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45592</v>
+        <v>47263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76515</v>
+        <v>75426</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2251543690813996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1705888137474074</v>
+        <v>0.176841224980189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.286291717026727</v>
+        <v>0.2822149446770725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -1428,19 +1428,19 @@
         <v>144015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122052</v>
+        <v>122814</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167107</v>
+        <v>169925</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2136914865755302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1811022774208096</v>
+        <v>0.1822338051504138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2479561172390247</v>
+        <v>0.2521376367374412</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>128520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109329</v>
+        <v>109739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149596</v>
+        <v>148795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3160292964783913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2688389675584679</v>
+        <v>0.2698470061166387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3678535331032105</v>
+        <v>0.3658847553528856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -1478,19 +1478,19 @@
         <v>82556</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64954</v>
+        <v>67457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98156</v>
+        <v>98745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3088945975375719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2430338633891175</v>
+        <v>0.2523987841402355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3672635830691359</v>
+        <v>0.3694651382593604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>193</v>
@@ -1499,19 +1499,19 @@
         <v>211077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186048</v>
+        <v>186178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>236843</v>
+        <v>238144</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3131998734773508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2760611143049224</v>
+        <v>0.2762547982017521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3514321480193103</v>
+        <v>0.3533624172701937</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>53100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40992</v>
+        <v>40343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67987</v>
+        <v>68549</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1663496492263328</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1284182668022894</v>
+        <v>0.1263834470822777</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2129870775819579</v>
+        <v>0.2147476793838352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1624,19 +1624,19 @@
         <v>30907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21342</v>
+        <v>21692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44143</v>
+        <v>43916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1456098293013866</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1005458912822169</v>
+        <v>0.1021954995344388</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2079632020766897</v>
+        <v>0.2068972884639862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1645,19 +1645,19 @@
         <v>84008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68352</v>
+        <v>69470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104269</v>
+        <v>104228</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1580664471929237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1286098733397611</v>
+        <v>0.1307131345179063</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1961896390905523</v>
+        <v>0.1961122720772807</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>29150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19263</v>
+        <v>19320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42894</v>
+        <v>42780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09132081186385936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06034678567941964</v>
+        <v>0.06052505862072302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1343746840418358</v>
+        <v>0.1340172937207815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1695,19 +1695,19 @@
         <v>26037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16871</v>
+        <v>17000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36940</v>
+        <v>38845</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1226666416455591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07948237969138439</v>
+        <v>0.08009087025992204</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1740305267428906</v>
+        <v>0.1830052613565737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1716,19 +1716,19 @@
         <v>55188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40468</v>
+        <v>42136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72207</v>
+        <v>72089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1038399100009828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07614344476824852</v>
+        <v>0.0792810173985454</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1358624909631028</v>
+        <v>0.1356405763409317</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>51318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38362</v>
+        <v>38151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65802</v>
+        <v>65735</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1607669998788056</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1201790599517973</v>
+        <v>0.119517066399768</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2061420772633996</v>
+        <v>0.2059298481630644</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1766,19 +1766,19 @@
         <v>41987</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30128</v>
+        <v>30776</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54995</v>
+        <v>56622</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1978066570000756</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1419361468898433</v>
+        <v>0.1449908879211818</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2590914479198073</v>
+        <v>0.2667534100974411</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>86</v>
@@ -1787,19 +1787,19 @@
         <v>93305</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75356</v>
+        <v>74886</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113476</v>
+        <v>111335</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1755601352239514</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.141788521959221</v>
+        <v>0.1409028846397503</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2135122670055824</v>
+        <v>0.2094839534362084</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>70566</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56506</v>
+        <v>55057</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87601</v>
+        <v>86074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2210656598159298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1770174812022056</v>
+        <v>0.1724807297658268</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2744306887716697</v>
+        <v>0.2696466166396658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1837,19 +1837,19 @@
         <v>30375</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20680</v>
+        <v>20839</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42031</v>
+        <v>42313</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1431027106394184</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09742518870429422</v>
+        <v>0.09817547265901588</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1980170529219685</v>
+        <v>0.199345156668605</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -1858,19 +1858,19 @@
         <v>100941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84275</v>
+        <v>82363</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120792</v>
+        <v>119607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1899283181472738</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1585702516983371</v>
+        <v>0.154972040681872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2272783128618784</v>
+        <v>0.225048411588666</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>115074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96321</v>
+        <v>96335</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132813</v>
+        <v>134958</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3604968792150724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3017490266136106</v>
+        <v>0.3017941676224206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.416067970179501</v>
+        <v>0.4227887312603668</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1908,19 +1908,19 @@
         <v>82955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69272</v>
+        <v>67731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98777</v>
+        <v>98584</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3908141614135604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3263528946732612</v>
+        <v>0.319089822085979</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4653531518640023</v>
+        <v>0.4644437769692225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -1929,19 +1929,19 @@
         <v>198029</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172273</v>
+        <v>174185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>220978</v>
+        <v>222828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3726051894348683</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3241436994340066</v>
+        <v>0.3277408799953928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.415785083847696</v>
+        <v>0.4192673089328959</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>64436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50280</v>
+        <v>51431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80052</v>
+        <v>82944</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1567436588714623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1223075432701408</v>
+        <v>0.1251081285672344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1947295900672054</v>
+        <v>0.201764735665491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2054,19 +2054,19 @@
         <v>42989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32308</v>
+        <v>32067</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57895</v>
+        <v>55786</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1444531219623871</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1085624803451033</v>
+        <v>0.1077506190005693</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1945391655163102</v>
+        <v>0.187451439262445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -2075,19 +2075,19 @@
         <v>107425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90916</v>
+        <v>88659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129003</v>
+        <v>128175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1515825108084788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1282878298629872</v>
+        <v>0.1251031595635167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1820304670913698</v>
+        <v>0.1808618862331468</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35254</v>
+        <v>35156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62259</v>
+        <v>61021</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.113036848769046</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0857560013819382</v>
+        <v>0.08551866288734802</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1514472170379207</v>
+        <v>0.1484358933135738</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -2125,19 +2125,19 @@
         <v>29458</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19898</v>
+        <v>21063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40819</v>
+        <v>41946</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09898422567061187</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06686262132263271</v>
+        <v>0.07077461936973538</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1371591911367117</v>
+        <v>0.1409484828594146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>74</v>
@@ -2146,19 +2146,19 @@
         <v>75926</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>60449</v>
+        <v>61218</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>93708</v>
+        <v>94420</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1071357503043592</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08529627742418583</v>
+        <v>0.08638164182793982</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1322275851547378</v>
+        <v>0.1332321659677557</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>98671</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82838</v>
+        <v>80602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>117136</v>
+        <v>116842</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2400212382051078</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.201508481762782</v>
+        <v>0.196068561517959</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2849387466784317</v>
+        <v>0.2842230819601589</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -2196,19 +2196,19 @@
         <v>67591</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53657</v>
+        <v>53987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82618</v>
+        <v>82407</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2271188219842963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1802983947953702</v>
+        <v>0.181407454815969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2776149180071248</v>
+        <v>0.2769064123037047</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -2217,19 +2217,19 @@
         <v>166261</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145038</v>
+        <v>144282</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>190575</v>
+        <v>190995</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2346031445141253</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2046566753461499</v>
+        <v>0.2035896702567572</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2689107448908745</v>
+        <v>0.2695035898933412</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>106927</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88808</v>
+        <v>88913</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125135</v>
+        <v>125378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2601053250001883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2160298193155401</v>
+        <v>0.2162847256663399</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3043964355435981</v>
+        <v>0.3049877072347538</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2267,19 +2267,19 @@
         <v>63771</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50413</v>
+        <v>50533</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79721</v>
+        <v>79026</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2142852757562104</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1693994244097035</v>
+        <v>0.1698021751638476</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.267878087809355</v>
+        <v>0.2655433772210908</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>163</v>
@@ -2288,19 +2288,19 @@
         <v>170698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147091</v>
+        <v>146860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195118</v>
+        <v>193047</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2408641754758947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2075531115487219</v>
+        <v>0.2072276613229685</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2753216977720556</v>
+        <v>0.2724000478894339</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>94589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77461</v>
+        <v>76861</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>112986</v>
+        <v>111945</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2300929291541956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1884289635358584</v>
+        <v>0.1869684671442609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2748449434525195</v>
+        <v>0.2723130078438509</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -2338,19 +2338,19 @@
         <v>93791</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77099</v>
+        <v>77536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111816</v>
+        <v>110865</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3151585546264943</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2590681163588935</v>
+        <v>0.2605381340844943</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3757274783328583</v>
+        <v>0.3725293072899935</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>177</v>
@@ -2359,19 +2359,19 @@
         <v>188380</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>164265</v>
+        <v>163381</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>213392</v>
+        <v>214319</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2658144188971421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2317870442981614</v>
+        <v>0.2305387359079261</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.301106982633964</v>
+        <v>0.3024155027628346</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>256462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>226266</v>
+        <v>226413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>288483</v>
+        <v>285437</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1826742982235272</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1611659178069386</v>
+        <v>0.1612708571650379</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2054827520413688</v>
+        <v>0.2033128077791468</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>140</v>
@@ -2484,19 +2484,19 @@
         <v>152700</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131275</v>
+        <v>131550</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>178124</v>
+        <v>177082</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1630847326185589</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1402024008248931</v>
+        <v>0.1404960959719152</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.190237975551278</v>
+        <v>0.189124243977544</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>383</v>
@@ -2505,19 +2505,19 @@
         <v>409162</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>371799</v>
+        <v>367875</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>449832</v>
+        <v>450266</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1748366080599253</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1588713714779353</v>
+        <v>0.1571946748030418</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1922151209990572</v>
+        <v>0.1924002741204243</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>160687</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>135442</v>
+        <v>137690</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>186612</v>
+        <v>186671</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1144548078584467</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09647319427847319</v>
+        <v>0.09807503722076667</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1329214626029331</v>
+        <v>0.1329634959496605</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>105</v>
@@ -2555,19 +2555,19 @@
         <v>111852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92261</v>
+        <v>93180</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>133691</v>
+        <v>133085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1194586343393979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09853530329562694</v>
+        <v>0.09951690439007294</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1427829118419433</v>
+        <v>0.1421355150078922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>255</v>
@@ -2576,19 +2576,19 @@
         <v>272539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>242528</v>
+        <v>241368</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>308103</v>
+        <v>306399</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1164568145583898</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1036330553400105</v>
+        <v>0.1031375319658056</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1316537978122559</v>
+        <v>0.130925594353183</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>278770</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>250505</v>
+        <v>249252</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>313171</v>
+        <v>310406</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1985637834248853</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.178431338502697</v>
+        <v>0.1775385628911048</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2230671051567189</v>
+        <v>0.2210978872676871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>179</v>
@@ -2626,19 +2626,19 @@
         <v>194333</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>169049</v>
+        <v>171241</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>224547</v>
+        <v>219994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2075485363797808</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1805449671276238</v>
+        <v>0.1828864897772365</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2398174587200165</v>
+        <v>0.2349545663262821</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>447</v>
@@ -2647,19 +2647,19 @@
         <v>473102</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>434906</v>
+        <v>433906</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>510188</v>
+        <v>514804</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2021585394943674</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1858369474374981</v>
+        <v>0.185409777497585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2180052835477455</v>
+        <v>0.2199778469245933</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>299887</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>269665</v>
+        <v>271606</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>332889</v>
+        <v>332479</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2136055324492827</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1920787393872313</v>
+        <v>0.1934613067061511</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2371120588999847</v>
+        <v>0.2368201686222956</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>165</v>
@@ -2697,19 +2697,19 @@
         <v>177644</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154166</v>
+        <v>153307</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>202933</v>
+        <v>201845</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1897252844238993</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1646499362652648</v>
+        <v>0.1637329767814114</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2167340705990429</v>
+        <v>0.2155722479910865</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>447</v>
@@ -2718,19 +2718,19 @@
         <v>477532</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>440960</v>
+        <v>437611</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>522789</v>
+        <v>517638</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2040511610646793</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1884239888195318</v>
+        <v>0.1869930393178585</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.223389724781709</v>
+        <v>0.2211888506666732</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>408125</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>374880</v>
+        <v>372472</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>446002</v>
+        <v>444088</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2907015780438581</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2670217198093948</v>
+        <v>0.2653064073221189</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3176808816084875</v>
+        <v>0.3163178545979031</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>275</v>
@@ -2768,19 +2768,19 @@
         <v>299795</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>268386</v>
+        <v>272133</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>329972</v>
+        <v>332297</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3201828122383631</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2866381756442651</v>
+        <v>0.2906393515718308</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3524118248820395</v>
+        <v>0.3548956914260733</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>650</v>
@@ -2789,19 +2789,19 @@
         <v>707920</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>661444</v>
+        <v>660619</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>754321</v>
+        <v>762008</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3024968768226382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2826376541259176</v>
+        <v>0.2822852353748734</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3223244637740394</v>
+        <v>0.3256090965279333</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>45453</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34849</v>
+        <v>34098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58806</v>
+        <v>57970</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1883516908385476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1444091395880952</v>
+        <v>0.1412979787506229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2436853701189651</v>
+        <v>0.2402178177112095</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -3154,19 +3154,19 @@
         <v>30283</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20273</v>
+        <v>20556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41202</v>
+        <v>40577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1843904765920411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1234429340890316</v>
+        <v>0.125166642185629</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2508743640758499</v>
+        <v>0.2470721246973807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -3175,19 +3175,19 @@
         <v>75736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61289</v>
+        <v>61232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92299</v>
+        <v>93165</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1867475616279725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1511243591784832</v>
+        <v>0.1509841702371802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2275878364104687</v>
+        <v>0.2297224965164724</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>41582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29826</v>
+        <v>30574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55022</v>
+        <v>55506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1723111896188039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1235952991397287</v>
+        <v>0.1266926379102113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2280040926434625</v>
+        <v>0.2300100759331076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3225,19 +3225,19 @@
         <v>35569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26068</v>
+        <v>26601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47002</v>
+        <v>46951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2165768517408642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1587266480991993</v>
+        <v>0.1619750682177929</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2861949086886984</v>
+        <v>0.2858814265292808</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -3246,19 +3246,19 @@
         <v>77151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62297</v>
+        <v>62388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93805</v>
+        <v>93000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1902369662157315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1536101558503105</v>
+        <v>0.1538354922384367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.231301767407624</v>
+        <v>0.2293154814191418</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>49534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37412</v>
+        <v>37903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62660</v>
+        <v>62279</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2052624853901235</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1550295928527435</v>
+        <v>0.1570638597487416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2596542807849341</v>
+        <v>0.2580755452600532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -3296,19 +3296,19 @@
         <v>39284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29569</v>
+        <v>29298</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49933</v>
+        <v>51243</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2391980188200618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1800434086053508</v>
+        <v>0.1783964115544338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3040406015311766</v>
+        <v>0.3120176883998056</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -3317,19 +3317,19 @@
         <v>88818</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72691</v>
+        <v>73432</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105881</v>
+        <v>106831</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2190049837918243</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1792396874320784</v>
+        <v>0.181066671084011</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2610781553687386</v>
+        <v>0.263421136127201</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>55248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43509</v>
+        <v>43106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69412</v>
+        <v>68497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2289407731901404</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1802957468852402</v>
+        <v>0.1786270918700015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2876338249474379</v>
+        <v>0.2838422324736827</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3367,19 +3367,19 @@
         <v>32129</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23190</v>
+        <v>22969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42867</v>
+        <v>42345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1956327188552295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1412003512690086</v>
+        <v>0.1398581788318975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.261013912526209</v>
+        <v>0.2578359985304642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -3388,19 +3388,19 @@
         <v>87377</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72623</v>
+        <v>71294</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105315</v>
+        <v>103734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2154523780716049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1790715343450229</v>
+        <v>0.1757934355303841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2596819692712126</v>
+        <v>0.2557830717597137</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>49503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37958</v>
+        <v>38024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63156</v>
+        <v>64407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2051338609623846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1572931255082512</v>
+        <v>0.1575644920639639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2617104088213922</v>
+        <v>0.2668947415814319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -3438,19 +3438,19 @@
         <v>26967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18873</v>
+        <v>18641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38079</v>
+        <v>37635</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1642019339918034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1149138293254094</v>
+        <v>0.1135020775200688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2318623963666497</v>
+        <v>0.2291574163663776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -3459,19 +3459,19 @@
         <v>76470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61008</v>
+        <v>61793</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93383</v>
+        <v>93289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1885581102928667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1504310875047331</v>
+        <v>0.1523675129155912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2302616261091406</v>
+        <v>0.2300299669205177</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>82115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65267</v>
+        <v>65676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101505</v>
+        <v>99648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1987071670251937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1579372630816764</v>
+        <v>0.1589268634373232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2456291754136087</v>
+        <v>0.2411360181782125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3584,19 +3584,19 @@
         <v>39731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29569</v>
+        <v>29283</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51984</v>
+        <v>53418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1456690180612839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084090395831844</v>
+        <v>0.1073631521128767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.190591048864851</v>
+        <v>0.1958507705709629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -3605,19 +3605,19 @@
         <v>121846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103528</v>
+        <v>101292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144375</v>
+        <v>139455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1776192976899565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1509162330109106</v>
+        <v>0.147656348790582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2104607464672478</v>
+        <v>0.2032880358034914</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>75411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60357</v>
+        <v>60639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92578</v>
+        <v>92841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1824844879939584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1460559875888925</v>
+        <v>0.1467371659607942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2240271781985601</v>
+        <v>0.2246629478898241</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -3655,19 +3655,19 @@
         <v>36586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26617</v>
+        <v>26069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49223</v>
+        <v>48948</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1341367190779203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09758627701198307</v>
+        <v>0.09557715189238995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.180470438714308</v>
+        <v>0.1794610998008014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -3676,19 +3676,19 @@
         <v>111997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>93914</v>
+        <v>90504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>133277</v>
+        <v>133589</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1632615050379466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1369014355989739</v>
+        <v>0.1319307709580468</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1942823065981493</v>
+        <v>0.1947366360143222</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>78110</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63191</v>
+        <v>61399</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>96203</v>
+        <v>95059</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1890157829337661</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1529133893375602</v>
+        <v>0.1485782511062962</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2327982761532046</v>
+        <v>0.2300302982607844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -3726,19 +3726,19 @@
         <v>64233</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50408</v>
+        <v>48864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78666</v>
+        <v>76811</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2355009493979199</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1848133098241447</v>
+        <v>0.1791528280385082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.288416435720006</v>
+        <v>0.2816153914599743</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -3747,19 +3747,19 @@
         <v>142343</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122177</v>
+        <v>120284</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>164363</v>
+        <v>164267</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2074981986208192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1781016678535855</v>
+        <v>0.175341408936483</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2395972446460962</v>
+        <v>0.2394568553787578</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>95822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77461</v>
+        <v>78318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113450</v>
+        <v>117263</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2318764671771015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1874463565592924</v>
+        <v>0.1895196515824114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2745330137133443</v>
+        <v>0.2837601486173183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3797,19 +3797,19 @@
         <v>51304</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39818</v>
+        <v>39646</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66102</v>
+        <v>65663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1881000330526011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1459880810929023</v>
+        <v>0.1453545859254654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2423514621378839</v>
+        <v>0.2407441471851017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -3818,19 +3818,19 @@
         <v>147126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124693</v>
+        <v>124239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170832</v>
+        <v>169747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2144710384279148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1817692055337228</v>
+        <v>0.1811066017731419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2490266523952296</v>
+        <v>0.247446060046023</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>81788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64630</v>
+        <v>64832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98972</v>
+        <v>100559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1979160948699804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1563955917437729</v>
+        <v>0.1568841224324178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2394988685671986</v>
+        <v>0.2433395682074662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -3868,19 +3868,19 @@
         <v>80896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66412</v>
+        <v>66196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96845</v>
+        <v>96466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2965932804102747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2434892384719089</v>
+        <v>0.2426980702807212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3550661991709029</v>
+        <v>0.353676617365089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -3889,19 +3889,19 @@
         <v>162684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140967</v>
+        <v>140688</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186099</v>
+        <v>186177</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2371499602233629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2054924830876181</v>
+        <v>0.2050853235618736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2712829724529846</v>
+        <v>0.2713959327569154</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>74726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59898</v>
+        <v>59580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94025</v>
+        <v>91768</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.205986679580068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1651118510571909</v>
+        <v>0.1642357754788149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2591860593761438</v>
+        <v>0.252963709191225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -4014,19 +4014,19 @@
         <v>28960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20305</v>
+        <v>19485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40842</v>
+        <v>40169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.107448465897557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07533661377299754</v>
+        <v>0.07229550815845723</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1515344848773175</v>
+        <v>0.1490381912714007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -4035,19 +4035,19 @@
         <v>103686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86248</v>
+        <v>84673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124423</v>
+        <v>122749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1639833844899218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1364051583421592</v>
+        <v>0.1339134027475165</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1967801840693862</v>
+        <v>0.1941323799757814</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>54948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40973</v>
+        <v>42331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69358</v>
+        <v>71173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1514667862428742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1129446732945045</v>
+        <v>0.1166873377456282</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1911892138246885</v>
+        <v>0.1961934807735916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -4085,19 +4085,19 @@
         <v>37339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27555</v>
+        <v>27110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48900</v>
+        <v>50087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1385374513303036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1022353417224392</v>
+        <v>0.1005830117463929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1814324881060501</v>
+        <v>0.1858347888069256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -4106,19 +4106,19 @@
         <v>92287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74731</v>
+        <v>76242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113582</v>
+        <v>112720</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1459554759668242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1181901531975973</v>
+        <v>0.1205806339379212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1796355617602171</v>
+        <v>0.1782722025050555</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>97423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81725</v>
+        <v>81406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114852</v>
+        <v>114848</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.268551773862872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2252792896269541</v>
+        <v>0.2244015690560899</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3165977708983381</v>
+        <v>0.3165865822679743</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -4156,19 +4156,19 @@
         <v>72249</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58263</v>
+        <v>58548</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87447</v>
+        <v>88412</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2680615491696834</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2161692741830537</v>
+        <v>0.2172285657832279</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3244514587896781</v>
+        <v>0.3280312691177494</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -4177,19 +4177,19 @@
         <v>169672</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147982</v>
+        <v>147420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>195413</v>
+        <v>193526</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2683428087144392</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.234039843415271</v>
+        <v>0.2331509942902225</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.309054388969054</v>
+        <v>0.3060701884767973</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>74372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61582</v>
+        <v>59467</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92610</v>
+        <v>89978</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2050105356950145</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1697540180745767</v>
+        <v>0.1639257693786602</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2552849320028895</v>
+        <v>0.2480307579767732</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -4227,19 +4227,19 @@
         <v>51056</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38088</v>
+        <v>38585</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65215</v>
+        <v>65380</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1894318553352089</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1413170022303757</v>
+        <v>0.143161491293161</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2419643294637166</v>
+        <v>0.2425769297385974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -4248,19 +4248,19 @@
         <v>125428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105187</v>
+        <v>104946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146891</v>
+        <v>145312</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1983699047781977</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1663574889316552</v>
+        <v>0.1659763520396592</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2323144784615771</v>
+        <v>0.2298170970292126</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>61302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49281</v>
+        <v>47458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78865</v>
+        <v>76552</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1689842246191713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1358455004847779</v>
+        <v>0.1308214219080956</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.21739600626651</v>
+        <v>0.2110206415791627</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -4298,19 +4298,19 @@
         <v>79919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67544</v>
+        <v>66360</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95435</v>
+        <v>96996</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.296520678267247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.250606521583458</v>
+        <v>0.246210146425118</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3540862702783837</v>
+        <v>0.3598797247959389</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -4319,19 +4319,19 @@
         <v>141222</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119780</v>
+        <v>121873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162072</v>
+        <v>165358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2233484260506172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.189437525626772</v>
+        <v>0.192748129315274</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2563230258591395</v>
+        <v>0.2615211846077018</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>99487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81575</v>
+        <v>82748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117024</v>
+        <v>118204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2493404088575967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2044480832168696</v>
+        <v>0.2073881930198311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2932926809179622</v>
+        <v>0.2962492225456331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -4444,19 +4444,19 @@
         <v>62165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47322</v>
+        <v>48891</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78063</v>
+        <v>78234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1909993734420039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1453934095808878</v>
+        <v>0.1502138480193212</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2398447016269609</v>
+        <v>0.2403696808219823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>154</v>
@@ -4465,19 +4465,19 @@
         <v>161652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140755</v>
+        <v>139512</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186055</v>
+        <v>186116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2231303879837413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1942851494309485</v>
+        <v>0.1925700109555144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2568140333914802</v>
+        <v>0.2568978308627109</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>56751</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43387</v>
+        <v>43532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>71706</v>
+        <v>72957</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1422323395682561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1087392970050672</v>
+        <v>0.1091030604952827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.179713158840138</v>
+        <v>0.1828495627362675</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -4515,19 +4515,19 @@
         <v>43824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31443</v>
+        <v>32554</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57668</v>
+        <v>58403</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.134645364851964</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09660704703147509</v>
+        <v>0.1000206087864043</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1771816650387624</v>
+        <v>0.1794403539846841</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>95</v>
@@ -4536,19 +4536,19 @@
         <v>100574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84033</v>
+        <v>82925</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>120117</v>
+        <v>121985</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1388238507701591</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1159913628128255</v>
+        <v>0.1144620744164218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1657987819383943</v>
+        <v>0.1683777205293857</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>79997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65070</v>
+        <v>64148</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95603</v>
+        <v>96286</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2004937239645556</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1630830985610784</v>
+        <v>0.1607714606934469</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2396071504811775</v>
+        <v>0.2413167827904354</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -4586,19 +4586,19 @@
         <v>68384</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53482</v>
+        <v>54417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83616</v>
+        <v>82880</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2101073931001386</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1643193075988851</v>
+        <v>0.1671933940379593</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.256906760290406</v>
+        <v>0.2546450070604491</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>143</v>
@@ -4607,19 +4607,19 @@
         <v>148382</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>124785</v>
+        <v>126833</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>169687</v>
+        <v>171150</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.204812716024313</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1722414388859169</v>
+        <v>0.1750688166951905</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2342209771881376</v>
+        <v>0.2362401655184831</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>72104</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56925</v>
+        <v>58380</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87294</v>
+        <v>88891</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1807105805531446</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.142668985550346</v>
+        <v>0.1463141845553772</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2187826026278182</v>
+        <v>0.2227827389531524</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -4657,19 +4657,19 @@
         <v>59215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47743</v>
+        <v>45503</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74517</v>
+        <v>74125</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1819351628639393</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1466861254746762</v>
+        <v>0.1398063663584501</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2289497555556478</v>
+        <v>0.2277455565390097</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>130</v>
@@ -4678,19 +4678,19 @@
         <v>131319</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113338</v>
+        <v>110753</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>154421</v>
+        <v>152781</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1812607306781646</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1564415041230627</v>
+        <v>0.1528735756293444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2131484564950363</v>
+        <v>0.2108857289890558</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>90662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75535</v>
+        <v>74933</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>108311</v>
+        <v>107645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2272229470564469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1893099538663627</v>
+        <v>0.1878014762521328</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2714548844785807</v>
+        <v>0.2697874013941549</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>86</v>
@@ -4728,19 +4728,19 @@
         <v>91885</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74878</v>
+        <v>76099</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109078</v>
+        <v>109763</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2823127057419542</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2300589413463799</v>
+        <v>0.2338104561699735</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3351344098071748</v>
+        <v>0.3372413853130932</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>176</v>
@@ -4749,19 +4749,19 @@
         <v>182548</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>161084</v>
+        <v>162056</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>208875</v>
+        <v>207656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.251972314543622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2223458697533765</v>
+        <v>0.2236880891199043</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2883128543688571</v>
+        <v>0.2866293742996165</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>301781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>272319</v>
+        <v>272458</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>333851</v>
+        <v>336157</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2130713319345024</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1922700440385988</v>
+        <v>0.1923677230523563</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2357142126312025</v>
+        <v>0.2373425811187002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>157</v>
@@ -4874,19 +4874,19 @@
         <v>161140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>138315</v>
+        <v>139667</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>187021</v>
+        <v>187569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1561457724481153</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1340288326702015</v>
+        <v>0.1353387619038608</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1812255119073624</v>
+        <v>0.1817558287526383</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>437</v>
@@ -4895,19 +4895,19 @@
         <v>462920</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>425996</v>
+        <v>419870</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>505744</v>
+        <v>500889</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.189076849817932</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1739955700934498</v>
+        <v>0.171493049752512</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2065680676927383</v>
+        <v>0.2045851048203299</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>228692</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>201984</v>
+        <v>202606</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>258556</v>
+        <v>260166</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1614669270736227</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1426098005949523</v>
+        <v>0.1430491176038756</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1825528618963</v>
+        <v>0.183689660949166</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -4945,19 +4945,19 @@
         <v>153318</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>132283</v>
+        <v>132741</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177771</v>
+        <v>177602</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.14856622875863</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1281836729789456</v>
+        <v>0.1286271006021251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1722614927547553</v>
+        <v>0.1720984118629241</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>362</v>
@@ -4966,19 +4966,19 @@
         <v>382009</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>347026</v>
+        <v>345430</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>419769</v>
+        <v>417614</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1560292014227332</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1417406924719918</v>
+        <v>0.1410886619554914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1714519975065607</v>
+        <v>0.1705718321959747</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>305064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>272317</v>
+        <v>274469</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>336541</v>
+        <v>339524</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2153891836347424</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1922683734452902</v>
+        <v>0.1937881706465502</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2376137362775353</v>
+        <v>0.2397199476293686</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>239</v>
@@ -5016,19 +5016,19 @@
         <v>244151</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>217795</v>
+        <v>218509</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>273092</v>
+        <v>271994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2365843949763586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2110451521156318</v>
+        <v>0.2117368135208568</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2646287992995301</v>
+        <v>0.2635642514520545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>521</v>
@@ -5037,19 +5037,19 @@
         <v>549214</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>506585</v>
+        <v>505567</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>594010</v>
+        <v>592773</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2243230988053953</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2069113842534716</v>
+        <v>0.2064957268813473</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2426195319268839</v>
+        <v>0.2421143087698438</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>297545</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>265086</v>
+        <v>265453</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>329769</v>
+        <v>330778</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2100809350304291</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1871631174877019</v>
+        <v>0.187421947521269</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2328324710298353</v>
+        <v>0.2335443632742928</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -5087,19 +5087,19 @@
         <v>193705</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>170547</v>
+        <v>169362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>220224</v>
+        <v>220380</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.187702315106042</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1652616340663007</v>
+        <v>0.1641134828529511</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2133992097669931</v>
+        <v>0.2135498276065927</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>470</v>
@@ -5108,19 +5108,19 @@
         <v>491251</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>453090</v>
+        <v>448968</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>532000</v>
+        <v>534496</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2006482056832957</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1850615433118813</v>
+        <v>0.1833779944981331</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2172922014407004</v>
+        <v>0.2183116508225564</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>283256</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>253440</v>
+        <v>250096</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>317661</v>
+        <v>315585</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1999916223267034</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1789405992620638</v>
+        <v>0.1765794232540442</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2242833055492657</v>
+        <v>0.2228176902379368</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>273</v>
@@ -5158,19 +5158,19 @@
         <v>279668</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>252052</v>
+        <v>253613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>311734</v>
+        <v>308298</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2710012887108542</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2442411271036911</v>
+        <v>0.2457531708157629</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3020732548418006</v>
+        <v>0.2987436636848552</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>535</v>
@@ -5179,19 +5179,19 @@
         <v>562924</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>522717</v>
+        <v>522080</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>605402</v>
+        <v>605335</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2299226442706437</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2135003340623783</v>
+        <v>0.2132403325279264</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2472726040570278</v>
+        <v>0.2472452370892161</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>26604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16693</v>
+        <v>16249</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38078</v>
+        <v>40280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2722684349678125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.170837543983078</v>
+        <v>0.1662981533818544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3896981308199577</v>
+        <v>0.4122324695879299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -5544,19 +5544,19 @@
         <v>14524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9068</v>
+        <v>9283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22558</v>
+        <v>22560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1893957271215138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1182456799147268</v>
+        <v>0.1210515644048257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2941604652765119</v>
+        <v>0.2941881991111047</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -5565,19 +5565,19 @@
         <v>41128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30533</v>
+        <v>28841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57610</v>
+        <v>55415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2358272971479745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1750745773985383</v>
+        <v>0.1653770110451776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.330336467120537</v>
+        <v>0.3177500555498578</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>15872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9215</v>
+        <v>9436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25244</v>
+        <v>25273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1624367225193144</v>
+        <v>0.1624367225193145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09431083113297871</v>
+        <v>0.09657087909090828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2583536846435066</v>
+        <v>0.2586457808200576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -5615,19 +5615,19 @@
         <v>6631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3175</v>
+        <v>3383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11601</v>
+        <v>11974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0864631249844949</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04139931151524942</v>
+        <v>0.04410945989074886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1512757573826194</v>
+        <v>0.1561380759630196</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -5636,19 +5636,19 @@
         <v>22502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14866</v>
+        <v>14665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32412</v>
+        <v>32917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1290292906833712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08524070899193362</v>
+        <v>0.08409177330430294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1858514582404266</v>
+        <v>0.1887488936648349</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>17357</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9981</v>
+        <v>10140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27900</v>
+        <v>27386</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1776333477369964</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1021511313156813</v>
+        <v>0.1037798270356542</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2855316050243817</v>
+        <v>0.2802805349301297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -5686,19 +5686,19 @@
         <v>20842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14559</v>
+        <v>14213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28550</v>
+        <v>28324</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2717813541998157</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1898514545472552</v>
+        <v>0.185343768869475</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3722942580224332</v>
+        <v>0.3693459106603749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -5707,19 +5707,19 @@
         <v>38199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28636</v>
+        <v>29038</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50663</v>
+        <v>51135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2190325075826926</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.164199587700923</v>
+        <v>0.1665034077178134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2905019906782155</v>
+        <v>0.293207108425499</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>10877</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5384</v>
+        <v>5144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19467</v>
+        <v>18948</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1113223993846215</v>
+        <v>0.1113223993846216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05510388929218162</v>
+        <v>0.05264515460240986</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1992275577877396</v>
+        <v>0.1939192115141024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5757,19 +5757,19 @@
         <v>13474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8217</v>
+        <v>8301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22559</v>
+        <v>22350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1757001699819397</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1071476994435074</v>
+        <v>0.108246576523477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2941734576402785</v>
+        <v>0.2914405413517573</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -5778,19 +5778,19 @@
         <v>24351</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15696</v>
+        <v>16608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35393</v>
+        <v>36792</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1396308651248969</v>
+        <v>0.1396308651248968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09000092462367285</v>
+        <v>0.09523032334599164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.20294256480646</v>
+        <v>0.2109681121279265</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>27001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15919</v>
+        <v>15808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43105</v>
+        <v>41774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2763390953912551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1629153848650738</v>
+        <v>0.1617850457287764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4411428889630712</v>
+        <v>0.4275255977668287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -5828,19 +5828,19 @@
         <v>21216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14810</v>
+        <v>14791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29491</v>
+        <v>29761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2766596237122358</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1931208883886379</v>
+        <v>0.1928701445410651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3845569256772025</v>
+        <v>0.3880876486117695</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -5849,19 +5849,19 @@
         <v>48218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35238</v>
+        <v>34727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64828</v>
+        <v>65023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.276480039461065</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2020561676783749</v>
+        <v>0.1991236935139429</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3717223201081777</v>
+        <v>0.3728403695130782</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>47804</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35668</v>
+        <v>34935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63200</v>
+        <v>62706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2832089904396652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2113121736612844</v>
+        <v>0.2069643715050209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.374420511020556</v>
+        <v>0.3714942172410349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5974,19 +5974,19 @@
         <v>24287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16995</v>
+        <v>16880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33911</v>
+        <v>33466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1934447121437291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1353635016390428</v>
+        <v>0.1344482353139669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2701024462028186</v>
+        <v>0.2665540873339502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -5995,19 +5995,19 @@
         <v>72091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57349</v>
+        <v>56953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90121</v>
+        <v>89473</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2449212141659751</v>
+        <v>0.2449212141659752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1948355434600383</v>
+        <v>0.1934902808977205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3061744972286387</v>
+        <v>0.3039740574030323</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>27360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17356</v>
+        <v>16762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39275</v>
+        <v>39712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1620887542495337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1028258451376364</v>
+        <v>0.09930411663440578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2326791235808783</v>
+        <v>0.2352683412468716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -6045,19 +6045,19 @@
         <v>25134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18322</v>
+        <v>17986</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33875</v>
+        <v>33198</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2001914714698433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1459369270537934</v>
+        <v>0.1432584470193325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2698116174909015</v>
+        <v>0.2644199773317156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -6066,19 +6066,19 @@
         <v>52494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41352</v>
+        <v>40259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68076</v>
+        <v>66678</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1783409688280465</v>
+        <v>0.1783409688280464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1404898628017627</v>
+        <v>0.1367764176142368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.231280410230957</v>
+        <v>0.2265293699234443</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>50069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36615</v>
+        <v>36703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63581</v>
+        <v>62474</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2966234881549021</v>
+        <v>0.296623488154902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2169185884393401</v>
+        <v>0.2174398220748343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3766787043381647</v>
+        <v>0.370115351763065</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -6116,19 +6116,19 @@
         <v>30257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22358</v>
+        <v>22023</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39248</v>
+        <v>40674</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2409939851904182</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1780848039561359</v>
+        <v>0.1754101163132822</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3126098540650548</v>
+        <v>0.3239674281350765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -6137,19 +6137,19 @@
         <v>80325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>64692</v>
+        <v>65752</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97221</v>
+        <v>98152</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2728954528589601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2197822960495499</v>
+        <v>0.223384934158059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3302976360761549</v>
+        <v>0.3334598544334496</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>21841</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13571</v>
+        <v>13863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33377</v>
+        <v>33023</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1293919702190763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08039840599082559</v>
+        <v>0.08212980720241102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.19773638191483</v>
+        <v>0.1956374955995132</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -6187,19 +6187,19 @@
         <v>19992</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13154</v>
+        <v>14294</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28143</v>
+        <v>28212</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1592352587955556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1047687941736203</v>
+        <v>0.1138510414668223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2241581179735453</v>
+        <v>0.2247069215919709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -6208,19 +6208,19 @@
         <v>41833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31221</v>
+        <v>31756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55249</v>
+        <v>54225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1421212337744558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1060691360907497</v>
+        <v>0.1078873918089165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1877027559855349</v>
+        <v>0.1842249148745821</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>21722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13300</v>
+        <v>13637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35014</v>
+        <v>34847</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1286867969368228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07879621890997258</v>
+        <v>0.08079308451436958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2074322046283591</v>
+        <v>0.2064447159236623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -6258,19 +6258,19 @@
         <v>25880</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18660</v>
+        <v>18319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35223</v>
+        <v>35203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2061345724004539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1486256350240326</v>
+        <v>0.1459114657050341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2805522331147648</v>
+        <v>0.2803954665057452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -6279,19 +6279,19 @@
         <v>47602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36175</v>
+        <v>36072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62349</v>
+        <v>63547</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1617211303725625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1229016461707538</v>
+        <v>0.122552182224443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2118248525410192</v>
+        <v>0.2158939600236116</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>30597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20010</v>
+        <v>18796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43056</v>
+        <v>43114</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3317239571541228</v>
+        <v>0.331723957154123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2169446322573568</v>
+        <v>0.203783620680128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4668024187088801</v>
+        <v>0.4674236343193635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6404,19 +6404,19 @@
         <v>17975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11680</v>
+        <v>11686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26137</v>
+        <v>25595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1976913185827903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1284578287562607</v>
+        <v>0.12852434202949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2874550377492769</v>
+        <v>0.2814986010512033</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -6425,7 +6425,7 @@
         <v>48572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36613</v>
+        <v>36103</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>64429</v>
@@ -6434,10 +6434,10 @@
         <v>0.2651874885382853</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1998943955464162</v>
+        <v>0.1971086098079431</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.351757714657406</v>
+        <v>0.3517605584715894</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>19309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11567</v>
+        <v>10865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30311</v>
+        <v>30251</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2093434613885204</v>
+        <v>0.2093434613885205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1254039346915116</v>
+        <v>0.1177949933567436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3286256352840765</v>
+        <v>0.327966186829573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -6475,19 +6475,19 @@
         <v>18271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12020</v>
+        <v>12131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26725</v>
+        <v>26356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2009454164150358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1322001934875974</v>
+        <v>0.1334205829567753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2939184675124216</v>
+        <v>0.2898670075987062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -6496,19 +6496,19 @@
         <v>37580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26252</v>
+        <v>27497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50378</v>
+        <v>51685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2051745047689336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.143329076167055</v>
+        <v>0.1501242638893792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2750441236190562</v>
+        <v>0.2821811978920826</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>20946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13128</v>
+        <v>13390</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31704</v>
+        <v>31667</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2270876877329268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1423253848196312</v>
+        <v>0.145173716908781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3437208562849757</v>
+        <v>0.3433192182858015</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -6546,19 +6546,19 @@
         <v>23079</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15640</v>
+        <v>16350</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30550</v>
+        <v>30861</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2538207337168534</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1720049689375038</v>
+        <v>0.1798198251952228</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3359877289612325</v>
+        <v>0.3394079200226088</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>48</v>
@@ -6567,19 +6567,19 @@
         <v>44025</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33061</v>
+        <v>33213</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56013</v>
+        <v>56431</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2403585036630977</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1805003144786266</v>
+        <v>0.1813310399187557</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3058123113910662</v>
+        <v>0.3080915554526071</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>14420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7894</v>
+        <v>8028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25801</v>
+        <v>25006</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1563344563914607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08558323042828046</v>
+        <v>0.08703546216539089</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2797290382537534</v>
+        <v>0.2711060279239944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6617,19 +6617,19 @@
         <v>12213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6866</v>
+        <v>6922</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19280</v>
+        <v>19284</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.134323846373488</v>
+        <v>0.1343238463734879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07551080183237492</v>
+        <v>0.07613149903719317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2120425656231146</v>
+        <v>0.2120880784379791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -6638,19 +6638,19 @@
         <v>26633</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18306</v>
+        <v>17158</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40245</v>
+        <v>39268</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1454079516364501</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09994494058889958</v>
+        <v>0.09367827330401422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2197254631786599</v>
+        <v>0.2143915679174934</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>6965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3004</v>
+        <v>2253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15184</v>
+        <v>14983</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07551043733296899</v>
+        <v>0.07551043733296901</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03257268813286263</v>
+        <v>0.02442222410182824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1646219818871184</v>
+        <v>0.1624374039865603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -6688,19 +6688,19 @@
         <v>19387</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13333</v>
+        <v>13515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26994</v>
+        <v>27187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2132186849118326</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1466320426955219</v>
+        <v>0.1486441019954122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2968768495671252</v>
+        <v>0.299004888567099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -6709,19 +6709,19 @@
         <v>26352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18047</v>
+        <v>17908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37862</v>
+        <v>36675</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1438715513932333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09852886039887386</v>
+        <v>0.09776913476999369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2067155834576935</v>
+        <v>0.2002338397024975</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>50470</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39684</v>
+        <v>40190</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62473</v>
+        <v>62065</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4368383037169261</v>
+        <v>0.4368383037169262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3434798891985826</v>
+        <v>0.3478602341991656</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.540730160472283</v>
+        <v>0.5372043985382964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -6834,19 +6834,19 @@
         <v>29519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21927</v>
+        <v>22298</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37781</v>
+        <v>38071</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3128912546259502</v>
+        <v>0.3128912546259501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2324158172465759</v>
+        <v>0.2363435765061785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4004636316992641</v>
+        <v>0.4035332807850275</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -6855,19 +6855,19 @@
         <v>79989</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66058</v>
+        <v>66649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94231</v>
+        <v>94004</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3811219389036967</v>
+        <v>0.3811219389036966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3147457823939954</v>
+        <v>0.317559948310158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4489797882860792</v>
+        <v>0.4478986763214315</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>21689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14231</v>
+        <v>13376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32077</v>
+        <v>31040</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1877261491406834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1231800851742609</v>
+        <v>0.1157780402756324</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2776371811946873</v>
+        <v>0.2686681294867834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -6905,19 +6905,19 @@
         <v>12061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7681</v>
+        <v>7018</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18991</v>
+        <v>19087</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.127845285994672</v>
+        <v>0.1278452859946719</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08141440853410876</v>
+        <v>0.07438941209828671</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2012987551538321</v>
+        <v>0.2023153224847059</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -6926,19 +6926,19 @@
         <v>33750</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24523</v>
+        <v>24122</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45307</v>
+        <v>44432</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1608086546069862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1168435926943288</v>
+        <v>0.1149344037168933</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2158753126382517</v>
+        <v>0.2117052006368002</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>18650</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11595</v>
+        <v>11673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28452</v>
+        <v>28318</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1614213852552294</v>
+        <v>0.1614213852552293</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1003599498173705</v>
+        <v>0.1010363973904146</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.246269064780587</v>
+        <v>0.2451038371600689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -6976,19 +6976,19 @@
         <v>27382</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19783</v>
+        <v>20357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36463</v>
+        <v>36180</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2902379133741075</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2096905943163435</v>
+        <v>0.2157736841440847</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3864943189204544</v>
+        <v>0.3834951607421658</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -6997,19 +6997,19 @@
         <v>46032</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35445</v>
+        <v>35238</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58921</v>
+        <v>58916</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2193266659963389</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1688858581495332</v>
+        <v>0.1678964109034645</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2807404972373734</v>
+        <v>0.2807166991411353</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>11840</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6413</v>
+        <v>6422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19518</v>
+        <v>19074</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1024799505434502</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05550566766556939</v>
+        <v>0.05558874503843152</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1689377276014259</v>
+        <v>0.165096319850266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -7047,19 +7047,19 @@
         <v>15759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10248</v>
+        <v>10181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23157</v>
+        <v>23006</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1670380700746379</v>
+        <v>0.1670380700746378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1086261839534374</v>
+        <v>0.1079174486729397</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2454531599024078</v>
+        <v>0.2438530448181269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -7068,19 +7068,19 @@
         <v>27599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19270</v>
+        <v>18447</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37936</v>
+        <v>37363</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1314999535676093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09181544206740061</v>
+        <v>0.08789648890473009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1807531389987568</v>
+        <v>0.1780243424084108</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>12886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6662</v>
+        <v>6361</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21778</v>
+        <v>22991</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1115342113437109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05766107399241841</v>
+        <v>0.05505831594970018</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1885011985664444</v>
+        <v>0.1989988042137349</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -7118,19 +7118,19 @@
         <v>9622</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5112</v>
+        <v>5270</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15936</v>
+        <v>16589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1019874759306326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05418341234709195</v>
+        <v>0.0558576897343353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1689141917328035</v>
+        <v>0.1758300936793444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -7139,19 +7139,19 @@
         <v>22508</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14768</v>
+        <v>14903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34266</v>
+        <v>32782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1072427869253689</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07036477943702656</v>
+        <v>0.07101012204265844</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1632662840404503</v>
+        <v>0.1561968961277091</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>155475</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131831</v>
+        <v>131042</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>181857</v>
+        <v>180711</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.327814258599174</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2779610842317166</v>
+        <v>0.276297487221575</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3834407314771103</v>
+        <v>0.3810243943087696</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -7264,19 +7264,19 @@
         <v>86305</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70379</v>
+        <v>72972</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>102119</v>
+        <v>102951</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2227208545078261</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.181622138531074</v>
+        <v>0.1883134693369639</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2635311350867613</v>
+        <v>0.2656782103536351</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>221</v>
@@ -7285,19 +7285,19 @@
         <v>241780</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>213762</v>
+        <v>213249</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>269124</v>
+        <v>271192</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.280558468210394</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2480467630293742</v>
+        <v>0.2474515601764242</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3122878505309098</v>
+        <v>0.3146876663926166</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>84230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>65644</v>
+        <v>67890</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105456</v>
+        <v>103546</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1775957631401153</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1384078763001071</v>
+        <v>0.1431435982887901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2223511082639393</v>
+        <v>0.2183237889505622</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>62097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50996</v>
+        <v>50157</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>77178</v>
+        <v>74970</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.160247896975831</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1316000666142034</v>
+        <v>0.1294364623871499</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1991665750190616</v>
+        <v>0.1934684128495181</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>158</v>
@@ -7356,19 +7356,19 @@
         <v>146326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>124838</v>
+        <v>125294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>168978</v>
+        <v>169061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1697952057765013</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1448605009211649</v>
+        <v>0.1453896432954448</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1960802512806595</v>
+        <v>0.1961763366733309</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>107021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>88677</v>
+        <v>87241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>130049</v>
+        <v>127477</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2256506013305203</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1869739361878085</v>
+        <v>0.1839447360938448</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2742050738683875</v>
+        <v>0.2687807956772575</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>137</v>
@@ -7406,19 +7406,19 @@
         <v>101559</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86821</v>
+        <v>87327</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118440</v>
+        <v>119260</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2620856463035573</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2240517707368888</v>
+        <v>0.2253566909883457</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3056486496220949</v>
+        <v>0.3077651351106574</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>234</v>
@@ -7427,19 +7427,19 @@
         <v>208580</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>182439</v>
+        <v>182747</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>233798</v>
+        <v>236147</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2420338069459273</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.211700154394788</v>
+        <v>0.2120567418890412</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2712962120445314</v>
+        <v>0.2740216154050789</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>58978</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>45323</v>
+        <v>44815</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>75747</v>
+        <v>74685</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1243532511226131</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09556237821467453</v>
+        <v>0.09449039436038983</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.15971032966332</v>
+        <v>0.1574702621523829</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>79</v>
@@ -7477,19 +7477,19 @@
         <v>61438</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48919</v>
+        <v>49782</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>76207</v>
+        <v>76133</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1585480553916577</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1262425482055018</v>
+        <v>0.1284681840750585</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1966608572168211</v>
+        <v>0.1964701559379064</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>132</v>
@@ -7498,19 +7498,19 @@
         <v>120416</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>101284</v>
+        <v>101313</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>144114</v>
+        <v>143032</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1397291209680582</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1175287211105248</v>
+        <v>0.1175618706907827</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1672277186164399</v>
+        <v>0.1659727211279155</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>68574</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51990</v>
+        <v>50648</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91232</v>
+        <v>90236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1445861258075774</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1096199645737169</v>
+        <v>0.106789629787813</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.192359810265061</v>
+        <v>0.1902592031619156</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>92</v>
@@ -7548,19 +7548,19 @@
         <v>76105</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61951</v>
+        <v>62336</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92757</v>
+        <v>91851</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.196397546821128</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1598719823544182</v>
+        <v>0.1608642455092699</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2393713191266978</v>
+        <v>0.2370312365259358</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>140</v>
@@ -7569,19 +7569,19 @@
         <v>144679</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>120995</v>
+        <v>123504</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>169836</v>
+        <v>170500</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1678833980991193</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1404007097431938</v>
+        <v>0.1433128479028395</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1970752782401221</v>
+        <v>0.197846178295175</v>
       </c>
     </row>
     <row r="33">
